--- a/frontend-cemos/public/assets/content/estrategia/1-tratado-estrategia/script/m2.xlsx
+++ b/frontend-cemos/public/assets/content/estrategia/1-tratado-estrategia/script/m2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_titulo</t>
+          <t>bibliografia_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -498,104 +498,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Pág 89</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Na formação da trilogia clássica da arte da guerra, qual autor é citado por distinguir a "tática do detalhe" da "grande tática"?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Clausewitz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Dietrich von Bülow</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Jomini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Napoleão Bonaparte</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>Conforme o **item 48 ("A formação da trilogia")**, o texto afirma explicitamente que "Jomini distinguia a tática do detalhe da grande tática ou tática dos exércitos".</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 89</t>
+          <t>Pág 90</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Segundo Dietrich von Bülow, qual critério distinguia a estratégia da tática no início do século XIX?</t>
+          <t>Como os "herdeiros de Clausewitz", especificamente o Marechal von Moltke e o General Lewal, reinterpretaram a relação entre política e guerra no final do século XIX?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A distinção entre a concepção política e a execução militar.</t>
+          <t>Defenderam que a política deve intervir em todos os níveis da guerra, inclusive no tático.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O fato de os movimentos ocorrerem fora ou dentro do arco visual recíproco e do efeito do canhão.</t>
+          <t>Argumentaram que a guerra é um substituto da política, onde o governo civil não deve intervir na condução das operações militares após o início das hostilidades.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A diferença entre a guerra ofensiva e a guerra defensiva.</t>
+          <t>Mantiveram a visão fiel a Clausewitz de que a guerra é a continuação da política e deve ser submissa a ela em todo o tempo.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A separação entre o comando logístico e o comando operacional.</t>
+          <t>Propuseram que os chefes militares devem assumir o governo civil imediatamente ao deflagrar da guerra.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -605,7 +597,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bülow definia estratégia como movimentos fora do arco visual e do alcance da artilharia, e tática como a ciência dos movimentos na presença do inimigo.</t>
+          <t>De acordo com o **item 49**, o texto explica que Moltke define o paradigma de que "O governo civil não intervém na condução das operações militares", corrigindo a ideia de Clausewitz para tornar a guerra "substituta da política".</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -614,42 +606,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 90</t>
+          <t>Pág 91</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Qual é a célebre "fórmula" de Clausewitz que define a relação entre guerra e política?</t>
+          <t>Durante a Primeira Guerra Mundial, qual foi a posição defendida pelo General Ludendorff em relação à estratégia e à política, descrita no texto como "imperialismo da estratégia"?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A guerra é a negação da política pela violência.</t>
+          <t>A estratégia deve ser submissa à política para evitar danos aos países neutros.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A guerra é uma simples continuação da política por outros meios.</t>
+          <t>A política deve estar a serviço da guerra, pois a guerra é a suprema expressão da vontade de vida racial.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A política cessa quando a guerra começa, dando lugar à estratégia.</t>
+          <t>A política e a estratégia devem ser domínios completamente separados, sem interação alguma.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>A guerra é um ato puramente militar, independente das relações políticas.</t>
+          <t>A estratégia deve focar apenas na tática, deixando as grandes decisões para o governo.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -659,7 +651,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Clausewitz estabelece que o objetivo político é o móvel inicial e a guerra é um instrumento e uma continuação da política.</t>
+          <t>Segundo o **item 49**, Ludendorff critica Clausewitz e afirma que "a política deve estar a serviço da guerra", caracterizando um imperialismo da estratégia.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -668,52 +660,52 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 90</t>
+          <t>Pág 92</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Como o Marechal von Moltke redefiniu a relação entre o governo civil e a condução das operações militares, distanciando-se de Clausewitz?</t>
+          <t>O General prussiano Rühle von Lilienstern propôs uma distinção filosófica entre estratégia e tática. Qual foi a analogia utilizada por ele?</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>O governo civil deve intervir diretamente em todas as fases das operações.</t>
+          <t>A estratégia é a concepção e a tática é a execução; comportam-se como a palavra em relação ao ato.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A política e a estratégia devem fundir-se em uma única autoridade civil.</t>
+          <t>A estratégia é o escudo e a tática é a espada.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>O governo civil não intervém na condução das operações militares; a estratégia substitui a política durante as hostilidades.</t>
+          <t>A estratégia é a ciência do movimento e a tática é a arte do combate.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>O chefe do Estado-Maior deve estar subordinado ao Ministro da Guerra em questões táticas.</t>
+          <t>A estratégia é o planejamento logístico e a tática é a liderança moral.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Moltke estabeleceu o paradigma de que a política atua antes do conflito, mas deve ceder lugar à independência da estratégia assim que as hostilidades começam.</t>
+          <t>Conforme o **item 50**, Lilienstern afirma que a estratégia "se comporta, em relação à ação, como a palavra em relação ao ato" e identifica a estratégia com a previsão/concepção.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -722,52 +714,52 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 91</t>
+          <t>Pág 93</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Qual foi a tese defendida por Ludendorff após a Primeira Guerra Mundial em relação à política e a guerra?</t>
+          <t>Qual foi a posição do Major Grouard (1895) em relação à teoria que definia estratégia como concepção e tática como execução?</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A política deve estar a serviço da guerra, pois a guerra é a suprema expressão da vontade da vida racial.</t>
+          <t>Ele apoiou integralmente essa visão, popularizando-a na França.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>As teorias de Clausewitz sobre a primazia da política devem ser mantidas e reforçadas.</t>
+          <t>Ele recusou essa distinção, afirmando que a tática também contém concepção e execução.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A condução da guerra deve ser submetida ao controle democrático e ao sufrágio universal.</t>
+          <t>Ele expandiu a definição, criando o conceito de estratégia operacional.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A estratégia deve limitar-se estritamente à logística e deixar a política decidir os combates.</t>
+          <t>Ele ignorou o debate para focar apenas em logística.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Ludendorff radicalizou a independência militar, chegando a inverter a lógica de Clausewitz e afirmar que a política deve servir à guerra.</t>
+          <t>Nos termos do **item 50**, o texto cita que essa abordagem "é recusada, em 1895, pelo Major Grouard, que afirma: 'não é exato dizer que a tática executa o que a estratégia concebe... A tática... contém a concepção e a execução'".</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -776,42 +768,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 91</t>
+          <t>Pág 94</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Como o General Poirier definiu a "estratégia integral"?</t>
+          <t>Segundo o texto, o termo "tática" demorou a aparecer no vocabulário militar francês (século XVII). O que esse atraso sugere historicamente?</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Como a ciência da execução tática no campo de batalha.</t>
+          <t>Que os franceses não se interessavam por assuntos militares antes de Napoleão.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Como a política em ação, ou a ciência e a arte da manobra de forças para cumprir fins políticos.</t>
+          <t>Que o conceito só fica definido após a generalização e a consolidação das forças armadas estatais.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Como a substituição da diplomacia pela força bruta.</t>
+          <t>Que a influência da língua inglesa impediu a adoção do termo grego.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Como a gestão exclusiva dos meios logísticos e industriais.</t>
+          <t>Que a tática era considerada um segredo de estado.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -821,7 +813,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Poirier ampliou o conceito para "estratégia integral", mantendo o princípio de que a estratégia é a política em ação e serve aos seus fins.</t>
+          <t>Conforme o **item 51**, o texto afirma: "Esse atraso no surgimento da palavra sugere que o assunto só fica definido após a generalização e a consolidação das forças armadas estatais".</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -830,52 +822,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 92</t>
+          <t>Pág 95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Qual teoria alternativa sobre a distinção entre estratégia e tática foi proposta por autores como Rühle von Lilienstern e o General Bonnal?</t>
+          <t>O Barão de Mesnil-Durand, um dos primeiros teóricos da tática, definiu-a como:</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A estratégia é a arte de conceber e a tática é a ciência da execução.</t>
+          <t>A arte de inspirar coragem nos soldados.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A estratégia lida com exércitos e a tática lida com batalhões.</t>
+          <t>A ciência das marchas e dos acampamentos.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A estratégia é ofensiva e a tática é defensiva.</t>
+          <t>A ciência de relações, sendo a parte matemática da arte da guerra.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>A estratégia é imutável e a tática varia conforme a tecnologia.</t>
+          <t>O uso do terreno para surpreender o inimigo.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Esses autores tentaram distinguir os níveis baseando-se na dicotomia entre concepção (estratégia) e execução (tática), e não apenas no combate.</t>
+          <t>Segundo o **item 51**, Mesnil-Durand dá a definição: "A tática é uma ciência de relações... Esta ciência é a parte matemática da arte da guerra".</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -884,52 +876,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 93</t>
+          <t>Pág 96</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Qual fórmula simples o Almirante Castex adotou para diferenciar estratégia de tática, retomando Jomini?</t>
+          <t>O texto cita a defesa do forte de Souville em Verdun (1916) para ilustrar a importância de qual fator na guerra, apesar do avanço tecnológico?</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Estratégia é o uso de armas nucleares; tática é o uso de armas convencionais.</t>
+          <t>A superioridade da artilharia alemã.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Estratégia é a logística; tática é o movimento.</t>
+          <t>O heroísmo e a vontade de vencer dos combatentes (fatores morais).</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Estratégia é a guerra aquém e além do combate; tática é durante o combate.</t>
+          <t>A eficiência da logística francesa.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Estratégia é a defesa do território; tática é a invasão do inimigo.</t>
+          <t>A intervenção direta do comando estratégico na tática.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Castex, seguindo Jomini, situou a tática especificamente no momento do combate, e a estratégia cobrindo toda a guerra antes e depois dele.</t>
+          <t>Conforme o **item 52 ("A tática deve ser distinguida do combate")**, o texto usa o exemplo de Verdun para mostrar que a ciência tática é vã se "a coragem, o ardor, a vontade de vencer não animam os combatentes".</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -938,42 +930,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 94</t>
+          <t>Pág 97</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O termo "tática" deriva do grego *Taxis*. Qual é o significado original deste termo?</t>
+          <t>Como Jomini, responsável por introduzir a palavra "logística" no campo militar, definiu originalmente esse conceito?</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Violência e força.</t>
+          <t>Como a arte de abastecer as tropas e gerir víveres.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ordem, arranjo e distribuição.</t>
+          <t>Como a ciência dos estados-maiores e a arte prática de movimentar os exércitos.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Engano e surpresa.</t>
+          <t>Como a parte da matemática aplicada à balística.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Comando e liderança.</t>
+          <t>Como a estratégia de retaguarda e defesa civil.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -983,7 +975,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A etimologia de tática remete a ordem e arranjo, refletindo a transição do combate heróico individual para a disciplina militar.</t>
+          <t>Nos termos do **item 53**, o texto esclarece que Jomini "identifica a logística com a ciência dos estados-maiores... A parte essencial dela está, para ele, na ciência das marchas... Ele não concebe... a logística como a parte da arte da guerra relativa aos aprovisionamentos".</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -992,52 +984,52 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 94</t>
+          <t>Pág 98</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O que Napoleão concluiu ao comparar os mamelucos com os soldados franceses?</t>
+          <t>Em qual contexto histórico a logística foi finalmente reconhecida como um "ramo maior da arte da guerra", superando sua antiga subordinação?</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Que a bravura individual e o equipamento superior dos mamelucos garantiam a vitória sobre os franceses.</t>
+          <t>Na Guerra Franco-Prussiana de 1870.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Que a tática, a ordem e as evoluções permitiam que um grupo maior de franceses vencesse um grupo maior de mamelucos, apesar da inferioridade individual.</t>
+          <t>Na Primeira Guerra Mundial.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Que a cavalaria era obsoleta frente à infantaria, independentemente da tática.</t>
+          <t>Na Segunda Guerra Mundial, com os métodos estabelecidos pelos norte-americanos.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Que a superioridade numérica era o único fator determinante na batalha.</t>
+          <t>Nas guerras napoleônicas.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Napoleão usou o exemplo para demonstrar que a tática e a disciplina coletiva superam a bravura e o equipamento individual em grandes números.</t>
+          <t>Conforme o **item 53**, o texto afirma que "A logística apenas será reconhecida como um ramo maior da arte da guerra no decorrer da Segunda Guerra Mundial, quando os norte-americanos estabelecem os métodos...".</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1046,52 +1038,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 95</t>
+          <t>Pág 99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Como o Barão de Mesnil-Durand definiu a tática no século XVIII?</t>
+          <t>O texto menciona a tentativa frustrada de criar um ramo autônomo da ciência militar focado na "constituição geral do estado militar" ou "orgânica". Segundo o autor, por que esse ramo não teve êxito em impor-se?</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Como a parte puramente artística e intuitiva da guerra.</t>
+          <t>Devido à falta de interesse dos teóricos militares da época.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Como a ciência de relações, sendo a parte matemática da arte da guerra.</t>
+          <t>Porque foi proibido pelos governos civis.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Como a gestão dos recursos de subsistência das tropas.</t>
+          <t>Devido a arbitragens burocráticas ou corporativistas ligadas às ligações entre as armas no interior da instituição militar.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Como a política aplicada ao campo de batalha.</t>
+          <t>Porque a logística absorveu completamente essa função.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Mesnil-Durand via a tática como uma ciência de medição, cálculo de forças e movimentos, chamando-a de parte matemática da guerra.</t>
+          <t>De acordo com o **item 54 ("Uma dimensão frustrada: a organizacional")**, o texto explica que é preciso "incriminar as razões vinculadas às ligações entre as armas... o equilíbrio entre elas resultava mais de arbitragens burocráticas ou corporativistas".</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1100,42 +1092,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 96</t>
+          <t>Pág 100</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Qual fator fundamental, destacado pelo Coronel Ardant du Picq, distingue a tática teórica do combate real?</t>
+          <t>Qual fator principal levou ao questionamento da dualidade clássica estratégia-tática e à necessidade de novos níveis de comando a partir do século XIX?</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A influência das condições meteorológicas.</t>
+          <t>O declínio da cavalaria como arma decisiva.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O medo e a reação humana, sintetizados na frase "O homem só está apto a uma certa quantidade de terror".</t>
+          <t>O crescimento contínuo dos efetivos (exércitos de massa).</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A qualidade do armamento industrial.</t>
+          <t>A invenção da arma nuclear.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A interferência do poder político nas decisões do comandante.</t>
+          <t>A paz prolongada na Europa.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1145,7 +1137,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Ardant du Picq focou nos fatores morais e psicológicos, notando que o combate real envolve o controle do medo e do pânico, ao contrário da teoria pura.</t>
+          <t>Conforme o **item 55 ("A ascensão da estratégia")**, o texto inicia dizendo: "Esta dualidade estratégia-tática foi questionada pelo crescimento contínuo dos efetivos... tornando necessária a multiplicação dos níveis de comando".</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1154,52 +1146,52 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 97</t>
+          <t>Pág 101</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Qual é a origem etimológica da palavra "logística" segundo Jomini, embora não confirmada por usos antigos?</t>
+          <t>Como a introdução de tecnologias como o telégrafo e a estrada de ferro alterou a condução das operações militares?</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Do grego *logisteuo*, que significa administrar.</t>
+          <t>Tornou a condução geral das operações permanente e ativa, unindo a concepção do plano à sua execução.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Do latim *logicus*, referente à razão.</t>
+          <t>Impediu que o comandante-em-chefe saísse do quartel-general.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Do cargo de "maréchal général des logis" (marechal de alojamentos).</t>
+          <t>Tornou a guerra mais lenta devido à complexidade técnica.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Do inglês *logic*, referente à lógica de abastecimento.</t>
+          <t>Separou definitivamente a estratégia da política.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>a</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jomini associou a logística à função de alojamento e movimentação de tropas (maréchal des logis), dando-lhe um sentido de estado-maior.</t>
+          <t>Segundo o **item 55**, o texto afirma que com essas tecnologias "a condução geral das operações não está mais limitada a um controle vago... ela é doravante permanente e ativa. A concepção do plano de guerra e a condução das operações não são mais tão nitidamente separadas".</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1208,52 +1200,52 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 98</t>
+          <t>Pág 102</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quando a logística foi verdadeiramente reconhecida como um ramo maior da arte da guerra, com a definição moderna de *logistics*?</t>
+          <t>Qual conceito, popularizado nos anos 1950 mas surgido nos anos 1920 com Liddell Hart, é definido como a "política de guerra" que coordena todos os recursos da nação?</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Durante a Primeira Guerra Mundial, pelos alemães.</t>
+          <t>Estratégia Operacional.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Durante a Segunda Guerra Mundial, pelos norte-americanos.</t>
+          <t>Tática Geral.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Durante as Guerras Napoleônicas, pelos franceses.</t>
+          <t>Grande Estratégia.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Durante a Guerra Fria, pelos soviéticos.</t>
+          <t>Arte Operacional.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Foi na Segunda Guerra Mundial que os EUA estabeleceram os métodos e o conceito moderno de logística, elevando-a de uma arte "sem glória" para um ramo maior.</t>
+          <t>Conforme o **item 56**, subitem 1, o texto diz: "A grande estratégia é uma idéia anglo-saxônica... Liddel Hart a define de um modo bem simples como a 'política de guerra'".</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1262,42 +1254,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 99</t>
+          <t>Pág 103</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Por que a "orgânica" (organização das forças) teve dificuldade em se impor como um ramo autônomo da ciência militar?</t>
+          <t>Quem é apontado pelo texto como o provável inventor do conceito de "arte operacional" na Rússia Soviética nos anos 1920?</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Porque era considerada complexa demais para ser ensinada nas academias.</t>
+          <t>M.N. Toukhachevsky.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Porque dependia mais de arbitragens burocráticas e corporativistas entre as armas do que de regras racionais.</t>
+          <t>Alexsandr Svechin.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porque Lewal e outros autores proibiram seu estudo.</t>
+          <t>Vladimir Lenin.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Porque a organização militar permaneceu inalterada desde o século XVIII.</t>
+          <t>Georgy Zhukov.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1307,7 +1299,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>O texto explica que o equilíbrio entre as armas resultava de disputas internas e burocracia, dificultando a aceitação da organização como uma ciência racional autônoma.</t>
+          <t>De acordo com o **item 57 ("Operacional")**, o texto declara: "Na Rússia soviética, o inventor do conceito da arte operacional parece ter sido Alexsandr Svechin...".</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1316,52 +1308,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 100</t>
+          <t>Pág 104</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Qual mudança estrutural nos exércitos do século XIX forçou a ascensão da estratégia e o distanciamento da tática?</t>
+          <t>Em relação à adoção do conceito de "arte operacional" nos Estados Unidos, quando e como ocorreu sua oficialização pelo US Army?</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A redução dos efetivos para criar exércitos profissionais menores.</t>
+          <t>Foi adotado em 1945, logo após a Segunda Guerra Mundial.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O crescimento contínuo dos efetivos, exigindo a criação de níveis como corpos de exército e grupos de exércitos.</t>
+          <t>Nunca foi adotado oficialmente, permanecendo apenas teórico.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A abolição dos estados-maiores.</t>
+          <t>Foi adotado em 1982, após discursos de defesa de teóricos como Edward Luttwak.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>A eliminação da artilharia como arma decisiva.</t>
+          <t>Foi adotado em 2001, no contexto da Guerra ao Terror.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>c</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>O aumento massivo dos exércitos (centenas de milhares de homens) tornou impossível o comando direto, criando escalões superiores e elevando o nível da estratégia.</t>
+          <t>Conforme o **item 57**, o texto afirma: "A arte operacional implantou-se no vocabulário norte-americano depois dos vigorosos discursos de defesa como os de Edward Luttwak. A US Army adotou-a em 1982".</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1370,42 +1362,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 101</t>
+          <t>Pág 105</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Como Liddell Hart definiu a "grande estratégia" em sua obra *Strategy*?</t>
+          <t>Como o General Poirier definiu o nível operacional (ou "operático") no contexto da doutrina francesa?</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Como a tática das grandes unidades blindadas.</t>
+          <t>Como o nível de combate direto das pequenas unidades.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Como a política de guerra, coordenando todos os recursos da nação para atingir o objetivo político.</t>
+          <t>Como o nível de combinação das ações interforças em um teatro de operações, sob responsabilidade do comandante de teatro.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Como a estratégia exclusivamente naval e aérea.</t>
+          <t>Como o nível exclusivamente logístico de abastecimento das tropas.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Como a substituição da política pela vontade dos generais.</t>
+          <t>Como o nível político de decisão sobre a paz e a guerra.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1415,7 +1407,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Liddell Hart definiu grande estratégia como a coordenação de todos os recursos nacionais para o fim político, essencialmente "política de guerra".</t>
+          <t>Nos termos do **item 57**, o texto cita o General Poirier definindo o nível operacional como: "É o nível de combinação das ações interforças neste teatro sob a responsabilidade do comandante de teatro".</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1424,42 +1416,42 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 102</t>
+          <t>Pág 106</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Por que os soviéticos recusaram o conceito de "grande estratégia", preferindo distinguir entre política militar e estratégia militar?</t>
+          <t>Qual é a definição de tática militar proposta pelo General Iung, considerada pelo texto como amplamente válida?</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Porque desconheciam os trabalhos de Liddell Hart.</t>
+          <t>A arte de dispor as tropas em ordem de parada.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Porque acreditavam que a estratégia não tinha relação com a política.</t>
+          <t>A ciência de vencer batalhas sem combater.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Para evitar subordinar os fins políticos aos meios e não dividir o poder absoluto do Partido Comunista com especialistas militares.</t>
+          <t>O conjunto de dispositivos aptos a fixar o emprego judicioso dos homens, dos meios e dos ambientes para um propósito imediato dado.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Porque a língua russa não possuía um termo equivalente.</t>
+          <t>A teoria relativa ao uso das forças armadas exclusivamente no combate naval.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1469,7 +1461,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>A recusa visava manter o primado absoluto da política (o Partido) sobre a esfera militar, evitando que especialistas estratégicos usurpassem o poder decisório.</t>
+          <t>Conforme o **item 58 ("Tática")**, o texto cita o General Iung: "A tática militar constitui então o conjunto de dispositivos aptos a fixar o emprego judicioso dos homens, dos meios e dos ambientes para um propósito imediato dado".</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1478,42 +1470,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tratado de Estratégia</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pág 103</t>
+          <t>Pág 107</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Quem são considerados os principais teóricos soviéticos responsáveis pela invenção do conceito de "arte operacional" nos anos 1920?</t>
+          <t>O texto descreve a classificação da tática soviética em diferentes níveis. Qual das alternativas abaixo apresenta corretamente essa divisão?</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lênin e Stalin.</t>
+          <t>Tática política, tática econômica e tática militar.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svechin e Triandafillov.</t>
+          <t>Tática geral, tática dos tipos de forças, tática das armas e tática de tropas especiais.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Zhukov e Konev.</t>
+          <t>Tática defensiva, tática ofensiva e tática de retirada.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Moltke e Ludendorff.</t>
+          <t>Tática de solo, tática de mar e tática de ar.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1523,119 +1515,11 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Svechin (que cunhou o termo) e Triandafillov (que escreveu a obra clássica sobre a natureza das operações) são os teóricos centrais da arte operacional soviética.</t>
+          <t>De acordo com o **item 58**, subitem 2, a tática soviética se decompunha em: "tática geral, tática dos tipos de forças..., tática das armas..., tática de tropas especiais...".</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Pág 103</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Qual é a função da "arte operacional" segundo a teoria militar soviética?</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Substituir completamente a estratégia e a tática.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Gerenciar a logística da retaguarda apenas.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Restabelecer a união entre tática e estratégia, conduzindo operações sucessivas para atingir objetivos que uma única batalha não alcança.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Focar exclusivamente no combate de pequenas unidades.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>A arte operacional surgiu porque a extensão das frentes impedia a vitória numa única batalha, exigindo uma corrente de operações para ligar tática e estratégia.</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Tratado de Estratégia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pág 106</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Cap. 2 - A estratégia enquanto categoria do conflito</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Como o General Iung definiu a tática militar após as contribuições de Lewal?</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Como o conjunto de dispositivos para o emprego judicioso dos homens, meios e ambientes para um propósito imediato.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Como a arte de evitar o combate a todo custo.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Como a ciência exclusiva da artilharia e engenharia.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Como a teoria que ignora o terreno e foca apenas no moral da tropa.</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Iung definiu a tática de forma ampla, focando no emprego judicioso de todos os meios para um propósito imediato, indo além do simples choque físico.</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
